--- a/public/form_upload/std_shc.xlsx
+++ b/public/form_upload/std_shc.xlsx
@@ -4,70 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="22995" windowHeight="10050"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="20700" windowHeight="10050" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ราคามือสอง" sheetId="1" r:id="rId1"/>
+    <sheet name="ตัวอย่าง" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
-  <si>
-    <t>รุ่น</t>
-  </si>
-  <si>
-    <t>แบบ</t>
-  </si>
-  <si>
-    <t>ปีรถ</t>
-  </si>
-  <si>
-    <t>กลุ่มรถ</t>
-  </si>
-  <si>
-    <t>ราคารถใหม่</t>
-  </si>
-  <si>
-    <t>ราคามือสอง</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>ลำดับ</t>
-  </si>
-  <si>
-    <t>ND125</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>xxxx</t>
-  </si>
-  <si>
-    <t>Fกป
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย</t>
   </si>
   <si>
     <t>01</t>
@@ -105,62 +55,116 @@
     </r>
   </si>
   <si>
-    <t>0101</t>
-  </si>
-  <si>
-    <t>Fกป
-Fนยx
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย
-Fนย</t>
-  </si>
-  <si>
-    <t>ND1250</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>GRN-WHIเขียว-ขาว
-BLU-BLK/น้ำเงิน-ดำ
-BLK-RE/ดำ-แดง</t>
-  </si>
-  <si>
     <t>Fกป</t>
   </si>
   <si>
-    <t>Fนย</t>
-  </si>
-  <si>
-    <t>TJนย</t>
+    <r>
+      <t xml:space="preserve">แบบ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ปีรถ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>กลุ่มรถ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">รุ่น </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ราคารถใหม่</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ราคามือสอง </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>ยี่ห้อ</t>
+  </si>
+  <si>
+    <t>HONDA</t>
+  </si>
+  <si>
+    <t>ACB110SB</t>
+  </si>
+  <si>
+    <t>TH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +186,21 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -226,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -249,6 +268,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,302 +577,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="24.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30" style="5" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" style="5" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="5"/>
+    <col min="3" max="3" width="24.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30" style="5" customWidth="1"/>
+    <col min="10" max="10" width="34.28515625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="27.75">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5">
-        <v>2560</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5">
-        <v>61900</v>
-      </c>
-      <c r="G2" s="5">
-        <v>44000</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5">
-        <v>2560</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5">
-        <v>61900</v>
-      </c>
-      <c r="G3" s="5">
-        <v>44000</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5">
-        <v>2560</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="5">
-        <v>61900</v>
-      </c>
-      <c r="G4" s="5">
-        <v>44000</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2560</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="5">
-        <v>61900</v>
-      </c>
-      <c r="G5" s="5">
-        <v>44000</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2560</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5">
-        <v>61900</v>
-      </c>
-      <c r="G6" s="5">
-        <v>44000</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2560</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5">
-        <v>61900</v>
-      </c>
-      <c r="G7" s="5">
-        <v>44000</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2561</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="5">
-        <v>62000</v>
-      </c>
-      <c r="G9" s="5">
-        <v>45000</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2561</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="5">
-        <v>62500</v>
-      </c>
-      <c r="G10" s="5">
-        <v>45500</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2561</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="5">
-        <v>62500</v>
-      </c>
-      <c r="G11" s="5">
-        <v>45500</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>25</v>
-      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="F2" s="6"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="F7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -855,24 +658,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" customWidth="1"/>
+    <col min="10" max="10" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="63.75">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2563</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>61900</v>
+      </c>
+      <c r="H2" s="5">
+        <v>44000</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>